--- a/notebook/results/Uncategorized_papers.xlsx
+++ b/notebook/results/Uncategorized_papers.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,11 +439,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="40" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,22 +488,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>StoreId</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AccessionNumber</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AlternateTitle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ArticleType</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AuthorAffiliation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>coden</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>companies</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>copyright</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>digitalObjectIdentifier</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>documentStatus</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>documentType</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>elecPubDate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>entryDate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>identifierKeywords</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>isbn</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>issn</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>languageOfSummary</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>originalTitle</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>placeOfPublication</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>pubdate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>pubtitle</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Authors</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Abstract</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>reportNumber</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DocumentURL</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FindACopy</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>processed_abstract</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>primary_doc_type</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>dominant_topic</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>theme</t>
         </is>
       </c>
     </row>
@@ -479,20 +683,138 @@
           <t>KENDALL RELEASES NEW PENTAGON ACQUISITION POLICY GUIDANCE</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[...]Kendall writes, DOD is in the midst of discussions with Congress on a variety of Pentagon acquisition reform initiatives to remove "burdensome and overlapping" regulations that will hopefully augment DODI 5000.02 once they are passed into law.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1644449712</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bertuca, Tony</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Congress</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Inside Washington Publishers Jan 12, 2015</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> News</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jan 12, 2015</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Overlap , Release</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2164-8190</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arlington</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Jan 12, 2015</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Inside the Pentagon's Inside the Navy</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
         <v>2015</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bertuca, Tony</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[...]Kendall writes, DOD is in the midst of discussions with Congress on a variety of Pentagon acquisition reform initiatives to remove "burdensome and overlapping" regulations that will hopefully augment DODI 5000.02 once they are passed into law.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/kendall-releases-new-pentagon-acquisition-policy/docview/1644449712/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=article&amp;amp;sid=ProQ:ProQ%3Aabitrade&amp;amp;atitle=KENDALL+RELEASES+NEW+PENTAGON+ACQUISITION+POLICY+GUIDANCE&amp;amp;title=Inside+the+Pentagon%27s+Inside+the+Navy&amp;amp;issn=21648190&amp;amp;date=2015-01-12&amp;amp;volume=28&amp;amp;issue=1&amp;amp;spage=&amp;amp;au=Bertuca%2C+Tony&amp;amp;isbn=&amp;amp;jtitle=Inside+the+Pentagon%27s+Inside+the+Navy&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>kendall writes midst discussion congress variety pentagon acquisition reform initiative remove burdensome overlapping regulation hopefully augment dodi passed law</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>['kendall', 'writes', 'midst', 'discussions', 'congress', 'variety', 'pentagon', 'acquisition', 'reform', 'initiatives', 'remove', 'burdensome', 'overlapping', 'regulations', 'hopefully', 'augment', 'dodi', 'passed', 'law']</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,20 +822,122 @@
           <t>Mega - Mobile Multimodal Extended Games</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>As aplicações de entretenimento móvel têm hoje em dia um papel importante e significativo no mercado de software, abrangendo um grupo variado de utilizadores. Tudo isto se deve ao repentino sucesso de dispositivos de interacção inovadora, como o Wiimote da Nintendo, o Move da Sony e o Kinect da Microsoft. Por sua vez estas técnicas de interacção multimodal têm sido exploradas para jogos móveis. A recente geração de dispositivos móveis vem equipada com uma grande variedade de sensores, para além dos óbvios como ecrã táctil e microfone. Existem ainda outros componentes interessantes como bússola digital, acelerómetros, sensores ópticos. Os dispositivos móveis são também utilizados como máquina fotográfica digital, agenda pessoal, assim como para ver videos e ouvir música, e claro, para jogar jogos. Olhar para os novos grupos de utilizadores e para as novas formas de jogar e incluir nos jogos formas de interacção novas, usando os atributos e potencialidades de novas plataformas e novas tecnologias é pois um assunto pungente e deveras desafiante. Com este trabalho pretende-se estudar e propor novas dimensões de jogo e interacção com plataformas móveis, sejam smartphones, sejam tablets, que se adequem às mais distintas comunidades de jogadores. Pretende-se sobretudo explorar modalidades alternativas como as baseadas no tacto e vibração, assim como no áudio, combinadas ou não com outras mais tradicionais de foro visual. Almeja-se ainda explorar jogos em grupo, à distância e co-localizados, encontrando e estudando novas formas de expressão em jogos clássicos e jogos inovadores que envolvam pequenos conjuntos de indivíduos. A ubiquidade inerente aos dispositivos móveis faz ainda com que se tenham que encontrar neste jogos de grupo formas de fluxo de jogo que sustentem saídas e entradas rápidas ou menos rápidas sem que ainda assim se perca o interesse e a motivação de jogar. Este trabalho iniciou-se com uma pesquisa intensiva de trabalho relacionado, sobre a área de jogos móveis e suas multimodalidades, passando consequentemente pela acessibilidade inerente, jogos em grupo e suas formas de comunicação e conexão, e por último dando especial atenção a jogos de puzzle, sendo o tipo de jogo focado neste trabalho. Seguidamente, foi efectuado o levantamento de requisitos e exploradas as opções de jogo e de interacção relativas a jogos de puzzle móveis multimodais. No âmbito deste estudo foram criados três pequenos jogos sobre um conceito comum: jogos de puzzle. A primeira aplicação contém três modalidades diferentes de jogo: uma visual, apresentando um jogo de puzzle de imagens baseado nos tradicionais; uma segunda auditiva, que recria o conceito de jogo através de música, tornando as peças em pequenas parcelas sonoras da música de tamanhos equivalentes; e a terceira háptica, criando deste modo um puzzle com peças de padrões vibratórios diferentes. A segunda aplicação recriou o mesmo conceito de jogo, puzzle, no modo audio, mas retirando toda a informação visual, apresentando simples formas de interacção. A terceira aplicação apresenta uma abordagem sobre os jogos em grupo, permitindo jogar puzzles visuais e de audio em dois modos distintos: cooperativo, onde os jogadores têm de jogar em equipa de forma a conseguir completar o puzzle; e competitiva, onde os jogadores são forçados a ser mais rápidos que o adversário de modo a poderem vencer. Todas estas aplicações permitem ao utilizador definir o tamanho do puzzle e o nível de dificuldade, assim como escolher as imagens e músicas que pretendem resolver em forma de puzzle.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2925087670</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dissertations &amp; Theses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Carvalho, Jaime Miguel Santos Montalvão</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Database copyright ProQuest LLC; ProQuest does not claim copyright in the individual underlying works.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2012</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9798381520644</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>PQDT - Global</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
         <v>2012</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Carvalho, Jaime Miguel Santos Montalvão</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>As aplicações de entretenimento móvel têm hoje em dia um papel importante e significativo no mercado de software, abrangendo um grupo variado de utilizadores. Tudo isto se deve ao repentino sucesso de dispositivos de interacção inovadora, como o Wiimote da Nintendo, o Move da Sony e o Kinect da Microsoft. Por sua vez estas técnicas de interacção multimodal têm sido exploradas para jogos móveis. A recente geração de dispositivos móveis vem equipada com uma grande variedade de sensores, para além dos óbvios como ecrã táctil e microfone. Existem ainda outros componentes interessantes como bússola digital, acelerómetros, sensores ópticos. Os dispositivos móveis são também utilizados como máquina fotográfica digital, agenda pessoal, assim como para ver videos e ouvir música, e claro, para jogar jogos. Olhar para os novos grupos de utilizadores e para as novas formas de jogar e incluir nos jogos formas de interacção novas, usando os atributos e potencialidades de novas plataformas e novas tecnologias é pois um assunto pungente e deveras desafiante. Com este trabalho pretende-se estudar e propor novas dimensões de jogo e interacção com plataformas móveis, sejam smartphones, sejam tablets, que se adequem às mais distintas comunidades de jogadores. Pretende-se sobretudo explorar modalidades alternativas como as baseadas no tacto e vibração, assim como no áudio, combinadas ou não com outras mais tradicionais de foro visual. Almeja-se ainda explorar jogos em grupo, à distância e co-localizados, encontrando e estudando novas formas de expressão em jogos clássicos e jogos inovadores que envolvam pequenos conjuntos de indivíduos. A ubiquidade inerente aos dispositivos móveis faz ainda com que se tenham que encontrar neste jogos de grupo formas de fluxo de jogo que sustentem saídas e entradas rápidas ou menos rápidas sem que ainda assim se perca o interesse e a motivação de jogar. Este trabalho iniciou-se com uma pesquisa intensiva de trabalho relacionado, sobre a área de jogos móveis e suas multimodalidades, passando consequentemente pela acessibilidade inerente, jogos em grupo e suas formas de comunicação e conexão, e por último dando especial atenção a jogos de puzzle, sendo o tipo de jogo focado neste trabalho. Seguidamente, foi efectuado o levantamento de requisitos e exploradas as opções de jogo e de interacção relativas a jogos de puzzle móveis multimodais. No âmbito deste estudo foram criados três pequenos jogos sobre um conceito comum: jogos de puzzle. A primeira aplicação contém três modalidades diferentes de jogo: uma visual, apresentando um jogo de puzzle de imagens baseado nos tradicionais; uma segunda auditiva, que recria o conceito de jogo através de música, tornando as peças em pequenas parcelas sonoras da música de tamanhos equivalentes; e a terceira háptica, criando deste modo um puzzle com peças de padrões vibratórios diferentes. A segunda aplicação recriou o mesmo conceito de jogo, puzzle, no modo audio, mas retirando toda a informação visual, apresentando simples formas de interacção. A terceira aplicação apresenta uma abordagem sobre os jogos em grupo, permitindo jogar puzzles visuais e de audio em dois modos distintos: cooperativo, onde os jogadores têm de jogar em equipa de forma a conseguir completar o puzzle; e competitiva, onde os jogadores são forçados a ser mais rápidos que o adversário de modo a poderem vencer. Todas estas aplicações permitem ao utilizador definir o tamanho do puzzle e o nível de dificuldade, assim como escolher as imagens e músicas que pretendem resolver em forma de puzzle.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/dissertations-theses/mega-mobile-multimodal-extended-games/docview/2925087670/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:dissertation&amp;amp;genre=dissertations&amp;amp;sid=ProQ:ProQuest+Dissertations+%26+Theses+Global&amp;amp;atitle=The+structure+of+mAG%2C+a+monomeric+mutant+of+the+green+fluorescent+protein+Azami-Green%2C+reveals+the+structural+basis+of+its+stable+green+emission&amp;amp;title=Acta+Crystallographica.+Section+F+%3A+Structural+Biology+and+Crystallization+Communications&amp;amp;issn=&amp;amp;date=2010-05-01&amp;amp;volume=66&amp;amp;issue=5&amp;amp;spage=485&amp;amp;au=Ebisawa%2C+Tatsuki%3BYamamura%2C+Akihiro%3BKameda%2C+Yasuhiro%3BHayakawa%2C+Kou%3BNagata%2C+Koji%3BTanokura%2C+Masaru&amp;amp;isbn=&amp;amp;jtitle=Acta+Crystallographica.+Section+F+%3A+Structural+Biology+and+Crystallization+Communications&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/10.1107%2FS1744309110011127</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>aplicações entretenimento móvel têm hoje dia papel importante significativo mercado software abrangendo grupo variado utilizadores tudo isto deve repentino sucesso dispositivos interacção inovadora como wiimote nintendo move sony kinect microsoft por sua vez estas técnicas interacção multimodal têm sido exploradas para jogos móveis recente geração dispositivos móveis vem equipada com uma grande variedade sensores para além do óbvios como ecrã táctil microfone existem ainda outros componentes interessantes como bússola digital acelerómetros sensores ópticos dispositivos móveis são também utilizados como máquina fotográfica digital agenda pessoal assim como para ver video ouvir música claro para jogar jogos olhar para novos grupos utilizadores para nova formas jogar incluir no jogos formas interacção nova usando atributos potencialidades nova plataformas nova tecnologias poi assunto pungente deveras desafiante com este trabalho estudar propor nova dimensões jogo interacção com plataformas móveis sejam smartphones sejam tablet que adequem mais distintas comunidades jogadores sobretudo explorar modalidades alternativas como baseadas tacto vibração assim como áudio combinadas não com outras mais tradicionais foro visual ainda explorar jogos grupo distância encontrando estudando nova formas expressão jogos clássicos jogos inovadores que envolvam pequenos conjuntos indivíduos ubiquidade inerente aos dispositivos móveis faz ainda com que tenham que encontrar neste jogos grupo formas fluxo jogo que sustentem saídas entradas rápidas menos rápidas sem que ainda assim perca interesse motivação jogar este trabalho com uma pesquisa intensiva trabalho relacionado sobre área jogos móveis suas multimodalidades passando consequentemente pela acessibilidade inerente jogos grupo suas formas comunicação conexão por último dando especial atenção jogos puzzle sendo tipo jogo focado neste trabalho seguidamente foi efectuado levantamento requisitos exploradas opções jogo interacção relativas jogos puzzle móveis multimodais âmbito deste estudo foram criados três pequenos jogos sobre conceito comum jogos puzzle primeira aplicação contém três modalidades diferentes jogo uma visual apresentando jogo puzzle imagens baseado no tradicionais uma segunda auditiva que recria conceito jogo através música tornando peças pequenas parcelas sonora música tamanhos equivalentes terceira háptica criando deste modo puzzle com peças padrões vibratórios diferentes segunda aplicação recriou mesmo conceito jogo puzzle modo audio ma retirando toda informação visual apresentando simple formas interacção terceira aplicação apresenta uma abordagem sobre jogos grupo permitindo jogar puzzle visuais audio doi modos distintos cooperativo onde jogadores têm jogar equipa forma conseguir completar puzzle competitiva onde jogadores são forçados ser mais rápidos que adversário modo poderem vencer toda estas aplicações permitem utilizador definir tamanho puzzle nível dificuldade assim como escolher imagens músicas que pretendem resolver forma puzzle</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>['aplicações', 'entretenimento', 'móvel', 'têm', 'hoje', 'dia', 'papel', 'importante', 'significativo', 'mercado', 'software', 'abrangendo', 'grupo', 'variado', 'utilizadores', 'tudo', 'isto', 'deve', 'repentino', 'sucesso', 'dispositivos', 'interacção', 'inovadora', 'como', 'wiimote', 'nintendo', 'move', 'sony', 'kinect', 'microsoft', 'por', 'sua', 'vez', 'estas', 'técnicas', 'interacção', 'multimodal', 'têm', 'sido', 'exploradas', 'para', 'jogos', 'móveis', 'recente', 'geração', 'dispositivos', 'móveis', 'vem', 'equipada', 'com', 'uma', 'grande', 'variedade', 'sensores', 'para', 'além', 'dos', 'óbvios', 'como', 'ecrã', 'táctil', 'microfone', 'existem', 'ainda', 'outros', 'componentes', 'interessantes', 'como', 'bússola', 'digital', 'acelerómetros', 'sensores', 'ópticos', 'dispositivos', 'móveis', 'são', 'também', 'utilizados', 'como', 'máquina', 'fotográfica', 'digital', 'agenda', 'pessoal', 'assim', 'como', 'para', 'ver', 'videos', 'ouvir', 'música', 'claro', 'para', 'jogar', 'jogos', 'olhar', 'para', 'novos', 'grupos', 'utilizadores', 'para', 'novas', 'formas', 'jogar', 'incluir', 'nos', 'jogos', 'formas', 'interacção', 'novas', 'usando', 'atributos', 'potencialidades', 'novas', 'plataformas', 'novas', 'tecnologias', 'pois', 'assunto', 'pungente', 'deveras', 'desafiante', 'com', 'este', 'trabalho', 'estudar', 'propor', 'novas', 'dimensões', 'jogo', 'interacção', 'com', 'plataformas', 'móveis', 'sejam', 'smartphones', 'sejam', 'tablets', 'que', 'adequem', 'mais', 'distintas', 'comunidades', 'jogadores', 'sobretudo', 'explorar', 'modalidades', 'alternativas', 'como', 'baseadas', 'tacto', 'vibração', 'assim', 'como', 'áudio', 'combinadas', 'não', 'com', 'outras', 'mais', 'tradicionais', 'foro', 'visual', 'ainda', 'explorar', 'jogos', 'grupo', 'distância', 'encontrando', 'estudando', 'novas', 'formas', 'expressão', 'jogos', 'clássicos', 'jogos', 'inovadores', 'que', 'envolvam', 'pequenos', 'conjuntos', 'indivíduos', 'ubiquidade', 'inerente', 'aos', 'dispositivos', 'móveis', 'faz', 'ainda', 'com', 'que', 'tenham', 'que', 'encontrar', 'neste', 'jogos', 'grupo', 'formas', 'fluxo', 'jogo', 'que', 'sustentem', 'saídas', 'entradas', 'rápidas', 'menos', 'rápidas', 'sem', 'que', 'ainda', 'assim', 'perca', 'interesse', 'motivação', 'jogar', 'este', 'trabalho', 'com', 'uma', 'pesquisa', 'intensiva', 'trabalho', 'relacionado', 'sobre', 'área', 'jogos', 'móveis', 'suas', 'multimodalidades', 'passando', 'consequentemente', 'pela', 'acessibilidade', 'inerente', 'jogos', 'grupo', 'suas', 'formas', 'comunicação', 'conexão', 'por', 'último', 'dando', 'especial', 'atenção', 'jogos', 'puzzle', 'sendo', 'tipo', 'jogo', 'focado', 'neste', 'trabalho', 'seguidamente', 'foi', 'efectuado', 'levantamento', 'requisitos', 'exploradas', 'opções', 'jogo', 'interacção', 'relativas', 'jogos', 'puzzle', 'móveis', 'multimodais', 'âmbito', 'deste', 'estudo', 'foram', 'criados', 'três', 'pequenos', 'jogos', 'sobre', 'conceito', 'comum', 'jogos', 'puzzle', 'primeira', 'aplicação', 'contém', 'três', 'modalidades', 'diferentes', 'jogo', 'uma', 'visual', 'apresentando', 'jogo', 'puzzle', 'imagens', 'baseado', 'nos', 'tradicionais', 'uma', 'segunda', 'auditiva', 'que', 'recria', 'conceito', 'jogo', 'através', 'música', 'tornando', 'peças', 'pequenas', 'parcelas', 'sonoras', 'música', 'tamanhos', 'equivalentes', 'terceira', 'háptica', 'criando', 'deste', 'modo', 'puzzle', 'com', 'peças', 'padrões', 'vibratórios', 'diferentes', 'segunda', 'aplicação', 'recriou', 'mesmo', 'conceito', 'jogo', 'puzzle', 'modo', 'audio', 'mas', 'retirando', 'toda', 'informação', 'visual', 'apresentando', 'simples', 'formas', 'interacção', 'terceira', 'aplicação', 'apresenta', 'uma', 'abordagem', 'sobre', 'jogos', 'grupo', 'permitindo', 'jogar', 'puzzles', 'visuais', 'audio', 'dois', 'modos', 'distintos', 'cooperativo', 'onde', 'jogadores', 'têm', 'jogar', 'equipa', 'forma', 'conseguir', 'completar', 'puzzle', 'competitiva', 'onde', 'jogadores', 'são', 'forçados', 'ser', 'mais', 'rápidos', 'que', 'adversário', 'modo', 'poderem', 'vencer', 'todas', 'estas', 'aplicações', 'permitem', 'utilizador', 'definir', 'tamanho', 'puzzle', 'nível', 'dificuldade', 'assim', 'como', 'escolher', 'imagens', 'músicas', 'que', 'pretendem', 'resolver', 'forma', 'puzzle']</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Dissertation/Thesis</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -521,20 +945,142 @@
           <t>PRESIDENT'S CORNER</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  General Walter Kross, our outgoing Vice Chairman of the Board; Mr. Daryl Deel, our outgoing Chairman of the Surface Committee; and Mr. Ken Gaulden, a VISA "plank holder," original member of the sealift committee EWG, and leading industry supporter of DOD.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>225358569</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wykle, Ken</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DETJAF</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright National Defense Transportation Association Sep 2007</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commentary</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sep 2007</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Surface , Chairperson , President , Visa , Corner</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0011-7625</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Washington</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Sep 2007</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Defense Transportation Journal</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>2007</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Wykle, Ken</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  General Walter Kross, our outgoing Vice Chairman of the Board; Mr. Daryl Deel, our outgoing Chairman of the Surface Committee; and Mr. Ken Gaulden, a VISA "plank holder," original member of the sealift committee EWG, and leading industry supporter of DOD.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/presidents-corner/docview/225358569/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=unknown&amp;amp;sid=ProQ:ProQ%3Amilitary&amp;amp;atitle=PRESIDENT%27S+CORNER&amp;amp;title=Defense+Transportation+Journal&amp;amp;issn=00117625&amp;amp;date=2007-09-01&amp;amp;volume=63&amp;amp;issue=5&amp;amp;spage=7&amp;amp;au=Wykle%2C+Ken&amp;amp;isbn=&amp;amp;jtitle=Defense+Transportation+Journal&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Military Database, ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>general walter kross outgoing vice chairman board daryl deel outgoing chairman surface committee ken gaulden visa plank holder original member sealift committee ewg leading industry supporter</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>['general', 'walter', 'kross', 'outgoing', 'vice', 'chairman', 'board', 'daryl', 'deel', 'outgoing', 'chairman', 'surface', 'committee', 'ken', 'gaulden', 'visa', 'plank', 'holder', 'original', 'member', 'sealift', 'committee', 'ewg', 'leading', 'industry', 'supporter']</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Commentary</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,20 +1088,142 @@
           <t>Why the Navy needs commercial shipbuilding</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>"Unfortunately," he said, "we have lost sight of just how important commercial shipbuilding could be to the strengthening of [the shipbuilding] industrial base. The U.S. Navy has a vested interest in the revitalization of commercial shipbuilding in America. Congress and the Navy must not confine their thinking to new ways of financing how we buy warships. We need to find new ideas of how shipbuilding, not just naval shipbuilding, can be revitalized in the U.S."</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>213494520</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trade Journals</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blenkey, Nicholas</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Navy-US</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright Simmons-Boardman Publishing Corporation May 2005</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commentary</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> May 2005</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rejuvenation , United States , Manufacturing , Navy , Shipbuilding</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0897-0491</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>May 2005</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Marine Log</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
         <v>2005</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Blenkey, Nicholas</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>"Unfortunately," he said, "we have lost sight of just how important commercial shipbuilding could be to the strengthening of [the shipbuilding] industrial base. The U.S. Navy has a vested interest in the revitalization of commercial shipbuilding in America. Congress and the Navy must not confine their thinking to new ways of financing how we buy warships. We need to find new ideas of how shipbuilding, not just naval shipbuilding, can be revitalized in the U.S."</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>https://login.libweb.lib.utsa.edu/login?url=https://www.proquest.com/trade-journals/why-navy-needs-commercial-shipbuilding/docview/213494520/se-2?accountid=7122</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>https://utsa.primo.exlibrisgroup.com/openurl/01UTXSANT_INST/01UTXSANT_INST:DEFAULT??url_ver=Z39.88-2004&amp;amp;rft_val_fmt=info:ofi/fmt:kev:mtx:journal&amp;amp;genre=unknown&amp;amp;sid=ProQ:ProQ%3Aabitrade&amp;amp;atitle=Why+the+Navy+needs+commercial+shipbuilding&amp;amp;title=Marine+Log&amp;amp;issn=08970491&amp;amp;date=2005-05-01&amp;amp;volume=110&amp;amp;issue=5&amp;amp;spage=4&amp;amp;au=Blenkey%2C+Nicholas&amp;amp;isbn=&amp;amp;jtitle=Marine+Log&amp;amp;btitle=&amp;amp;rft_id=info:eric/&amp;amp;rft_id=info:doi/</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>ProQuest One Academic, SciTech Premium Collection</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>unfortunately said lost sight important commercial shipbuilding could strengthening shipbuilding industrial base navy vested interest revitalization commercial shipbuilding america congress navy must confine thinking new way financing buy warship need find new idea shipbuilding naval shipbuilding revitalized</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>['unfortunately', 'said', 'lost', 'sight', 'important', 'commercial', 'shipbuilding', 'could', 'strengthening', 'shipbuilding', 'industrial', 'base', 'navy', 'vested', 'interest', 'revitalization', 'commercial', 'shipbuilding', 'america', 'congress', 'navy', 'must', 'confine', 'thinking', 'new', 'ways', 'financing', 'buy', 'warships', 'need', 'find', 'new', 'ideas', 'shipbuilding', 'naval', 'shipbuilding', 'revitalized']</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Commentary</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
